--- a/medicine/Enfance/Nicole_Chappe/Nicole_Chappe.xlsx
+++ b/medicine/Enfance/Nicole_Chappe/Nicole_Chappe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicole Chappe (née le 23 mars 1956 à Tulle, Corrèze) est une écrivaine française.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née en Corrèze, elle devient professeur en lycée.
 En dehors de publications professionnelles, elle s’intéresse à la littérature et publie en 1999 un premier livre, Boucles Blondes, aux Éditions du Ver Luisant (Brive).  Elle écrit en 2001 une suite  À Samedi, peut-être… .
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Boucles blondes -  Éditions Le Ver Luisant - 1999
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Boucles blondes -  Éditions Le Ver Luisant - 1999
 À Samedi, peut-être... -  Éditions Le Ver Luisant - 2001
 Le Capitaine sans bateau -  Éditions Les Monédières - 2008
 Lili des oiseaux -  Éditions Les Monédières - 2011
@@ -556,9 +575,43 @@
 Une vie couleur pastel - Éditions Lucien Souny - 2016
 Mille ans plus loin - 5 Sens Éditions - 2017
 Astrid - Spinelle Éditions - 2018.
-Une enfance en Limousin dans les années 60 - GESTE Poche - 2019
-Jeunesse
-Les Contes d'Albertine - Contes pour enfants - Éditions Le matériel Scolaire - 2004
+Une enfance en Limousin dans les années 60 - GESTE Poche - 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nicole_Chappe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nicole_Chappe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Contes d'Albertine - Contes pour enfants - Éditions Le matériel Scolaire - 2004
 La Phrase - Roman jeunesse - Éditions Le matériel Scolaire - 2004
 Ambiance glaciale - Roman jeunesse - Éditions Le matériel Scolaire - 2005
 Vol de toiles sur la toile - Roman jeunesse - Éditions Le matériel Scolaire - 2006
@@ -566,9 +619,43 @@
 La maison dorée - 5 Sens Éditions - 2018
 Le mystère du vieux livre -  5 Sens Éditions - 2019
 Recueil de contes - 5 Sens Éditions - 2020
-Carton gagnant ! Nombre 7 Éditions - 2021
-Autres
-Mon mémo santé - Nombre 7 Éditions - 2021</t>
+Carton gagnant ! Nombre 7 Éditions - 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nicole_Chappe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nicole_Chappe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mon mémo santé - Nombre 7 Éditions - 2021</t>
         </is>
       </c>
     </row>
